--- a/exampleProblems/nowick/nowick.xlsx
+++ b/exampleProblems/nowick/nowick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/nowick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8062626B-F089-4582-B991-9F53D06F714B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E124B865-6398-4035-8274-159D46C6CE54}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>6.45,6.45,6.45,6.45,17.3</t>
+  </si>
+  <si>
+    <t>smiles</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -703,12 +706,15 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1562,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D29" sqref="D29:I29"/>
     </sheetView>
   </sheetViews>
@@ -4093,6 +4099,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4309,22 +4330,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4341,29 +4372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/exampleProblems/nowick/nowick.xlsx
+++ b/exampleProblems/nowick/nowick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/nowick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E124B865-6398-4035-8274-159D46C6CE54}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E23E4F9-B81A-44B9-9434-F31876765C2A}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1335" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>smiles</t>
+  </si>
+  <si>
+    <t>CC(C)C1COC12CCN(C)C2=O</t>
   </si>
 </sst>
 </file>
@@ -704,6 +707,7 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -720,6 +724,9 @@
       </c>
       <c r="B2" t="s">
         <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4099,21 +4106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4330,32 +4322,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4372,4 +4354,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/exampleProblems/nowick/nowick.xlsx
+++ b/exampleProblems/nowick/nowick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/nowick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E23E4F9-B81A-44B9-9434-F31876765C2A}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD813EF1-7081-41EF-8C21-1AD9B2613C39}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1335" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -700,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1155,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1203,7 +1204,7 @@
         <v>71.12</v>
       </c>
       <c r="D2" s="11">
-        <v>653.20000000000005</v>
+        <v>-653.20000000000005</v>
       </c>
       <c r="E2" s="11">
         <v>18.5</v>
@@ -1235,7 +1236,7 @@
         <v>71.12</v>
       </c>
       <c r="D3" s="11">
-        <v>558</v>
+        <v>-558</v>
       </c>
       <c r="E3" s="11">
         <v>10.050000000000001</v>
@@ -1299,7 +1300,7 @@
         <v>33.08</v>
       </c>
       <c r="D5" s="11">
-        <v>286.7</v>
+        <v>-286.7</v>
       </c>
       <c r="E5" s="11">
         <v>8.2200000000000006</v>
@@ -1331,7 +1332,7 @@
         <v>33.08</v>
       </c>
       <c r="D6" s="11">
-        <v>181.8</v>
+        <v>-181.8</v>
       </c>
       <c r="E6" s="11">
         <v>9.77</v>
@@ -1362,7 +1363,7 @@
         <v>34.15</v>
       </c>
       <c r="D7" s="11">
-        <v>778.2</v>
+        <v>-778.2</v>
       </c>
       <c r="E7" s="11">
         <v>8.74</v>
@@ -1575,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:I29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4105,7 +4106,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA75258-B53E-2E41-8343-0515F39B48D7}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4322,15 +4380,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4338,6 +4387,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4356,27 +4413,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/nowick/nowick.xlsx
+++ b/exampleProblems/nowick/nowick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/nowick/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD813EF1-7081-41EF-8C21-1AD9B2613C39}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{20C417E0-FAD9-0345-8769-237C446526CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B104797C-E4FE-2748-A0C3-F7DDDC71049B}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +264,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -419,6 +424,33 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,6 +466,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,9 +741,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,17 +775,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -776,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -805,7 +841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -834,7 +870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -863,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -892,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -921,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -950,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -979,7 +1015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1008,7 +1044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1037,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1066,7 +1102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1077,7 +1113,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1088,7 +1124,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1099,7 +1135,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1110,7 +1146,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1121,7 +1157,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1158,361 +1194,371 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5">
-      <c r="A2" s="11">
+    <row r="2" spans="1:13" ht="17">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="C2" s="11">
-        <v>71.12</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B2" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D2" s="1">
         <v>-653.20000000000005</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="1">
         <v>18.5</v>
       </c>
-      <c r="F2" s="11">
-        <v>45.8</v>
-      </c>
-      <c r="G2" s="11">
-        <v>20691.34</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="F2" s="1">
+        <v>45.79</v>
+      </c>
+      <c r="G2" s="1">
+        <v>20690.96</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="11">
+    <row r="3" spans="1:13" ht="17">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>3.83</v>
-      </c>
-      <c r="C3" s="11">
-        <v>71.12</v>
-      </c>
-      <c r="D3" s="11">
-        <v>-558</v>
-      </c>
-      <c r="E3" s="11">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="B3" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-379.2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="F3" s="1">
         <v>52.75</v>
       </c>
-      <c r="G3" s="11">
-        <v>11063.56</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="1">
+        <v>7527.54</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="11">
+    <row r="4" spans="1:13" ht="17">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>3.6</v>
       </c>
-      <c r="C4" s="11">
-        <v>61.66</v>
-      </c>
-      <c r="D4" s="11">
-        <v>268.60000000000002</v>
-      </c>
-      <c r="E4" s="11">
-        <v>11.65</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="C4" s="1">
+        <v>61.83</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="F4" s="1">
         <v>58.84</v>
       </c>
-      <c r="G4" s="11">
-        <v>6886.68</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="1">
+        <v>1304.1199999999999</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
-      <c r="A5" s="11">
+    <row r="5" spans="1:13" ht="17">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="C5" s="11">
-        <v>33.08</v>
-      </c>
-      <c r="D5" s="11">
-        <v>-286.7</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="F5" s="11">
-        <v>55.01</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4843.8500000000004</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="B5" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33.18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-237.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4018.01</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
-      <c r="A6" s="11">
+    <row r="6" spans="1:13" ht="17">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>2.46</v>
-      </c>
-      <c r="C6" s="11">
-        <v>33.08</v>
-      </c>
-      <c r="D6" s="11">
-        <v>-181.8</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B6" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33.19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-180.8</v>
+      </c>
+      <c r="E6" s="1">
         <v>9.77</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="1">
         <v>60.44</v>
       </c>
-      <c r="G6" s="11">
-        <v>4012.54</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="1">
+        <v>3989.49</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5">
-      <c r="A7" s="11">
+      <c r="J6" s="1"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="17">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>2.17</v>
-      </c>
-      <c r="C7" s="11">
-        <v>34.15</v>
-      </c>
-      <c r="D7" s="11">
-        <v>-778.2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>8.74</v>
-      </c>
-      <c r="F7" s="11">
-        <v>59.62</v>
-      </c>
-      <c r="G7" s="11">
-        <v>15158.1</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="B7" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34.17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-334.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="F7" s="1">
+        <v>49.37</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5478.11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:13" ht="17">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>1.67</v>
       </c>
-      <c r="C8" s="11">
-        <v>33.51</v>
-      </c>
-      <c r="D8" s="11">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="E8" s="11">
-        <v>16.73</v>
-      </c>
-      <c r="F8" s="11">
-        <v>55.96</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5330.21</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="C8" s="1">
+        <v>33.68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2870.73</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
-      <c r="A9" s="11">
+    <row r="9" spans="1:13" ht="17">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>1.47</v>
-      </c>
-      <c r="C9" s="11">
-        <v>25.13</v>
-      </c>
-      <c r="D9" s="11">
-        <v>379.2</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="B9" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>224.5</v>
+      </c>
+      <c r="E9" s="1">
         <v>6.99</v>
       </c>
-      <c r="F9" s="11">
-        <v>58.22</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5769.77</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="1">
+        <v>58.21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3415.61</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
-      <c r="A10" s="11">
+    <row r="10" spans="1:13" ht="17">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="C10" s="11">
-        <v>20.61</v>
-      </c>
-      <c r="D10" s="11">
-        <v>936.7</v>
-      </c>
-      <c r="E10" s="11">
-        <v>15.55</v>
-      </c>
-      <c r="F10" s="11">
-        <v>58.76</v>
-      </c>
-      <c r="G10" s="11">
-        <v>32006.44</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="B10" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20.71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>515.79999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17.47</v>
+      </c>
+      <c r="F10" s="1">
+        <v>59.58</v>
+      </c>
+      <c r="G10" s="1">
+        <v>20074.150000000001</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
-      <c r="A11" s="11">
+    <row r="11" spans="1:13" ht="17">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>0.89</v>
       </c>
-      <c r="C11" s="11">
-        <v>19.11</v>
-      </c>
-      <c r="D11" s="11">
-        <v>581.4</v>
-      </c>
-      <c r="E11" s="11">
-        <v>9.14</v>
-      </c>
-      <c r="F11" s="11">
-        <v>55.23</v>
-      </c>
-      <c r="G11" s="11">
-        <v>10967.22</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="C11" s="8">
+        <v>19.21</v>
+      </c>
+      <c r="D11" s="8">
+        <v>216.7</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="F11" s="8">
+        <v>61.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4700.93</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1525,7 +1571,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1577,43 +1623,23 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>15</v>
-      </c>
+    <row r="1" spans="1:22">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1626,562 +1652,256 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="C2" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="D2" s="11">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E2" s="11">
-        <v>6.64</v>
-      </c>
-      <c r="F2" s="11">
-        <v>21.76</v>
-      </c>
-      <c r="G2" s="11">
-        <v>496.8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+    <row r="2" spans="1:22">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3.59</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E3" s="11">
-        <v>15.91</v>
-      </c>
-      <c r="F3" s="11">
-        <v>19.09</v>
-      </c>
-      <c r="G3" s="11">
-        <v>143.34</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+    <row r="3" spans="1:22">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3.58</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>15.35</v>
-      </c>
-      <c r="F4" s="11">
-        <v>18.57</v>
-      </c>
-      <c r="G4" s="11">
-        <v>124.56</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:22" ht="17">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3.59</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>6.03</v>
-      </c>
-      <c r="F5" s="11">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="G5" s="11">
-        <v>46.67</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:22" ht="17">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D6" s="11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E6" s="11">
-        <v>7.61</v>
-      </c>
-      <c r="F6" s="11">
-        <v>19.77</v>
-      </c>
-      <c r="G6" s="11">
-        <v>254.53</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" spans="1:22" ht="17">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D7" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="E7" s="11">
-        <v>7.66</v>
-      </c>
-      <c r="F7" s="11">
-        <v>17.12</v>
-      </c>
-      <c r="G7" s="11">
-        <v>188.5</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:22" ht="17">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2.48</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2.16</v>
-      </c>
-      <c r="D8" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="E8" s="11">
-        <v>9.24</v>
-      </c>
-      <c r="F8" s="11">
-        <v>17.43</v>
-      </c>
-      <c r="G8" s="11">
-        <v>280.08</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="8" spans="1:22" ht="17">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="D9" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="E9" s="11">
-        <v>6.02</v>
-      </c>
-      <c r="F9" s="11">
-        <v>21.23</v>
-      </c>
-      <c r="G9" s="11">
-        <v>174.33</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:22" ht="17">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="D10" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="E10" s="11">
-        <v>6.21</v>
-      </c>
-      <c r="F10" s="11">
-        <v>21.27</v>
-      </c>
-      <c r="G10" s="11">
-        <v>182.26</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="10" spans="1:22" ht="17">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="C11" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="D11" s="11">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6.64</v>
-      </c>
-      <c r="F11" s="11">
-        <v>21.76</v>
-      </c>
-      <c r="G11" s="11">
-        <v>496.8</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="11" spans="1:22" ht="17">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3.59</v>
-      </c>
-      <c r="C12" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E12" s="11">
-        <v>15.91</v>
-      </c>
-      <c r="F12" s="11">
-        <v>19.09</v>
-      </c>
-      <c r="G12" s="11">
-        <v>143.34</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="12" spans="1:22" ht="17">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3.58</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3.86</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>15.35</v>
-      </c>
-      <c r="F13" s="11">
-        <v>18.57</v>
-      </c>
-      <c r="G13" s="11">
-        <v>124.56</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="1:22" ht="17">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="C14" s="11">
-        <v>3.59</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>6.03</v>
-      </c>
-      <c r="F14" s="11">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="G14" s="11">
-        <v>46.67</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="14" spans="1:22" ht="17">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="D15" s="11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E15" s="11">
-        <v>7.61</v>
-      </c>
-      <c r="F15" s="11">
-        <v>19.77</v>
-      </c>
-      <c r="G15" s="11">
-        <v>254.53</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="15" spans="1:22" ht="17">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="D16" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="E16" s="11">
-        <v>7.66</v>
-      </c>
-      <c r="F16" s="11">
-        <v>17.12</v>
-      </c>
-      <c r="G16" s="11">
-        <v>188.5</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="16" spans="1:22" ht="17">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2.16</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2.48</v>
-      </c>
-      <c r="D17" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="E17" s="11">
-        <v>9.24</v>
-      </c>
-      <c r="F17" s="11">
-        <v>17.43</v>
-      </c>
-      <c r="G17" s="11">
-        <v>280.08</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:22" ht="17">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="D18" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="E18" s="11">
-        <v>6.02</v>
-      </c>
-      <c r="F18" s="11">
-        <v>21.23</v>
-      </c>
-      <c r="G18" s="11">
-        <v>174.33</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:22" ht="17">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="7"/>
@@ -2196,334 +1916,136 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1.67</v>
-      </c>
-      <c r="D19" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="E19" s="11">
-        <v>6.21</v>
-      </c>
-      <c r="F19" s="11">
-        <v>21.27</v>
-      </c>
-      <c r="G19" s="11">
-        <v>182.26</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="1:22" ht="17">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:22" ht="16.5">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C20" s="10">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D20" s="11">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E20" s="11">
-        <v>6.64</v>
-      </c>
-      <c r="F20" s="11">
-        <v>21.76</v>
-      </c>
-      <c r="G20" s="11">
-        <v>496.8</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="20" spans="1:22" ht="17">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:22" ht="16.5">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10">
-        <v>3.85</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3.85</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E21" s="11">
-        <v>15.91</v>
-      </c>
-      <c r="F21" s="11">
-        <v>19.09</v>
-      </c>
-      <c r="G21" s="11">
-        <v>143.34</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="21" spans="1:22" ht="17">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:22" ht="16.5">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>15.35</v>
-      </c>
-      <c r="F22" s="11">
-        <v>18.57</v>
-      </c>
-      <c r="G22" s="11">
-        <v>124.56</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="22" spans="1:22" ht="17">
+      <c r="A22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="16.5">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10">
-        <v>2.74</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2.74</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>6.03</v>
-      </c>
-      <c r="F23" s="11">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="G23" s="11">
-        <v>46.67</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="23" spans="1:22" ht="17">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="16.5">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D24" s="11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E24" s="11">
-        <v>7.61</v>
-      </c>
-      <c r="F24" s="11">
-        <v>19.77</v>
-      </c>
-      <c r="G24" s="11">
-        <v>254.53</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="16.5">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10">
-        <v>2.16</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2.16</v>
-      </c>
-      <c r="D25" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="E25" s="11">
-        <v>7.66</v>
-      </c>
-      <c r="F25" s="11">
-        <v>17.12</v>
-      </c>
-      <c r="G25" s="11">
-        <v>188.5</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="16.5">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="D26" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="E26" s="11">
-        <v>9.24</v>
-      </c>
-      <c r="F26" s="11">
-        <v>17.43</v>
-      </c>
-      <c r="G26" s="11">
-        <v>280.08</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="16.5">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1.48</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1.48</v>
-      </c>
-      <c r="D27" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="E27" s="11">
-        <v>6.02</v>
-      </c>
-      <c r="F27" s="11">
-        <v>21.23</v>
-      </c>
-      <c r="G27" s="11">
-        <v>174.33</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="16.5">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="D28" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="E28" s="11">
-        <v>6.21</v>
-      </c>
-      <c r="F28" s="11">
-        <v>21.27</v>
-      </c>
-      <c r="G28" s="11">
-        <v>182.26</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="16.5">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="D29" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="E29" s="11">
-        <v>6.21</v>
-      </c>
-      <c r="F29" s="11">
-        <v>21.27</v>
-      </c>
-      <c r="G29" s="11">
-        <v>182.26</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="24" spans="1:22" ht="17">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" ht="17">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:22" ht="17">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" ht="17">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:22" ht="17">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:22" ht="17">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="5"/>
@@ -2657,694 +2179,410 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K22"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:11" ht="57">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="11">
+    <row r="2" spans="1:11" ht="38">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="C2" s="11">
-        <v>99.92</v>
-      </c>
-      <c r="D2" s="11">
-        <v>267.89999999999998</v>
-      </c>
-      <c r="E2" s="11">
-        <v>7.17</v>
-      </c>
-      <c r="F2" s="11">
-        <v>48.08</v>
-      </c>
-      <c r="G2" s="11">
-        <v>3452.29</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="24">
+        <v>2.74</v>
+      </c>
+      <c r="C2" s="24">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D2" s="24">
+        <v>64.2</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3.77</v>
+      </c>
+      <c r="F2" s="24">
+        <v>58.61</v>
+      </c>
+      <c r="G2" s="24">
+        <v>530.15</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5">
-      <c r="A3" s="11">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="38">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>4.16</v>
-      </c>
-      <c r="C3" s="11">
-        <v>33.51</v>
-      </c>
-      <c r="D3" s="11">
-        <v>237.8</v>
-      </c>
-      <c r="E3" s="11">
-        <v>5.63</v>
-      </c>
-      <c r="F3" s="11">
-        <v>58.1</v>
-      </c>
-      <c r="G3" s="11">
-        <v>2909.34</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="24">
+        <v>2.16</v>
+      </c>
+      <c r="C3" s="24">
+        <v>179.14</v>
+      </c>
+      <c r="D3" s="24">
+        <v>348.7</v>
+      </c>
+      <c r="E3" s="24">
+        <v>4.88</v>
+      </c>
+      <c r="F3" s="24">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G3" s="24">
+        <v>2224.84</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5">
-      <c r="A4" s="11">
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="38">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>3.85</v>
-      </c>
-      <c r="C4" s="11">
-        <v>33.51</v>
-      </c>
-      <c r="D4" s="11">
-        <v>348.1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="F4" s="11">
-        <v>58.19</v>
-      </c>
-      <c r="G4" s="11">
-        <v>6788.41</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="24">
+        <v>1.67</v>
+      </c>
+      <c r="C4" s="24">
+        <v>61.84</v>
+      </c>
+      <c r="D4" s="24">
+        <v>136.5</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F4" s="24">
+        <v>57.66</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1488.81</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5">
-      <c r="A5" s="11">
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="38">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="C5" s="11">
-        <v>33.94</v>
-      </c>
-      <c r="D5" s="11">
-        <v>230.5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7.07</v>
-      </c>
-      <c r="F5" s="11">
-        <v>61.44</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3744.61</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="B5" s="24">
+        <v>1.66</v>
+      </c>
+      <c r="C5" s="24">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="D5" s="24">
+        <v>100.7</v>
+      </c>
+      <c r="E5" s="24">
+        <v>5.61</v>
+      </c>
+      <c r="F5" s="24">
+        <v>55.6</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1174.3399999999999</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5">
-      <c r="A6" s="11">
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" ht="38">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>2.74</v>
-      </c>
-      <c r="C6" s="11">
-        <v>179.01</v>
-      </c>
-      <c r="D6" s="11">
-        <v>407.9</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.66</v>
-      </c>
-      <c r="F6" s="11">
-        <v>54.71</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3050.88</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="B6" s="27">
+        <v>1.48</v>
+      </c>
+      <c r="C6" s="27">
+        <v>100.12</v>
+      </c>
+      <c r="D6" s="27">
+        <v>4206</v>
+      </c>
+      <c r="E6" s="27">
+        <v>9.82</v>
+      </c>
+      <c r="F6" s="27">
+        <v>49.22</v>
+      </c>
+      <c r="G6" s="27">
+        <v>76033.3</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C7" s="11">
-        <v>179.01</v>
-      </c>
-      <c r="D7" s="11">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E7" s="11">
-        <v>9.77</v>
-      </c>
-      <c r="F7" s="11">
-        <v>52.31</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5120.21</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2.46</v>
-      </c>
-      <c r="C8" s="11">
-        <v>34.15</v>
-      </c>
-      <c r="D8" s="11">
-        <v>220.6</v>
-      </c>
-      <c r="E8" s="11">
-        <v>8.4</v>
-      </c>
-      <c r="F8" s="11">
-        <v>43.28</v>
-      </c>
-      <c r="G8" s="11">
-        <v>2996.98</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C9" s="11">
-        <v>100.13</v>
-      </c>
-      <c r="D9" s="11">
-        <v>326.2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>9.77</v>
-      </c>
-      <c r="F9" s="11">
-        <v>45.4</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5407.42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2.17</v>
-      </c>
-      <c r="C10" s="11">
-        <v>33.08</v>
-      </c>
-      <c r="D10" s="11">
-        <v>541.70000000000005</v>
-      </c>
-      <c r="E10" s="11">
-        <v>7.4</v>
-      </c>
-      <c r="F10" s="11">
-        <v>41.99</v>
-      </c>
-      <c r="G10" s="11">
-        <v>6292.22</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.17</v>
-      </c>
-      <c r="C11" s="11">
-        <v>179.01</v>
-      </c>
-      <c r="D11" s="11">
-        <v>541.1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="F11" s="11">
-        <v>49.49</v>
-      </c>
-      <c r="G11" s="11">
-        <v>8476.84</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2.16</v>
-      </c>
-      <c r="C12" s="11">
-        <v>24.25</v>
-      </c>
-      <c r="D12" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="E12" s="11">
-        <v>6.28</v>
-      </c>
-      <c r="F12" s="11">
-        <v>97.59</v>
-      </c>
-      <c r="G12" s="11">
-        <v>167.23</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2.16</v>
-      </c>
-      <c r="C13" s="11">
-        <v>100.13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>560.70000000000005</v>
-      </c>
-      <c r="E13" s="11">
-        <v>14.74</v>
-      </c>
-      <c r="F13" s="11">
-        <v>56.39</v>
-      </c>
-      <c r="G13" s="11">
-        <v>17421.88</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1.66</v>
-      </c>
-      <c r="C14" s="11">
-        <v>61.88</v>
-      </c>
-      <c r="D14" s="11">
-        <v>136.5</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F14" s="11">
-        <v>57.67</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1488.83</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1.47</v>
-      </c>
-      <c r="C15" s="11">
-        <v>34.15</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4318.7</v>
-      </c>
-      <c r="E15" s="11">
-        <v>6.97</v>
-      </c>
-      <c r="F15" s="11">
-        <v>45.59</v>
-      </c>
-      <c r="G15" s="11">
-        <v>51321.09</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1.47</v>
-      </c>
-      <c r="C16" s="11">
-        <v>100.13</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4206.1000000000004</v>
-      </c>
-      <c r="E16" s="11">
-        <v>9.82</v>
-      </c>
-      <c r="F16" s="11">
-        <v>49.21</v>
-      </c>
-      <c r="G16" s="11">
-        <v>76032.679999999993</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="C17" s="11">
-        <v>33.08</v>
-      </c>
-      <c r="D17" s="11">
-        <v>181.9</v>
-      </c>
-      <c r="E17" s="11">
-        <v>6.33</v>
-      </c>
-      <c r="F17" s="11">
-        <v>104.86</v>
-      </c>
-      <c r="G17" s="11">
-        <v>4512.71</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="C18" s="11">
-        <v>19.11</v>
-      </c>
-      <c r="D18" s="11">
-        <v>2220.1999999999998</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4.91</v>
-      </c>
-      <c r="F18" s="11">
-        <v>51.12</v>
-      </c>
-      <c r="G18" s="11">
-        <v>20838.73</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1.03</v>
-      </c>
-      <c r="C19" s="11">
-        <v>61.66</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1782.2</v>
-      </c>
-      <c r="E19" s="11">
-        <v>3.52</v>
-      </c>
-      <c r="F19" s="11">
-        <v>56.2</v>
-      </c>
-      <c r="G19" s="11">
-        <v>13182.03</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="C20" s="11">
-        <v>61.66</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1357</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="F20" s="11">
-        <v>31.62</v>
-      </c>
-      <c r="G20" s="11">
-        <v>997.59</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="C21" s="11">
-        <v>20.61</v>
-      </c>
-      <c r="D21" s="11">
-        <v>2400.5</v>
-      </c>
-      <c r="E21" s="11">
-        <v>6.63</v>
-      </c>
-      <c r="F21" s="11">
-        <v>49.38</v>
-      </c>
-      <c r="G21" s="11">
-        <v>29375.83</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0.89</v>
-      </c>
-      <c r="C22" s="11">
-        <v>33.51</v>
-      </c>
-      <c r="D22" s="11">
-        <v>2153.3000000000002</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7.56</v>
-      </c>
-      <c r="F22" s="11">
-        <v>54.36</v>
-      </c>
-      <c r="G22" s="11">
-        <v>33082.14</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,13 +2594,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+    <sheetView tabSelected="1" zoomScale="231" zoomScaleNormal="231" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -3389,7 +2630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="17">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3414,7 +2655,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="17">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3439,7 +2680,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="17">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3464,7 +2705,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3489,7 +2730,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3514,7 +2755,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3539,7 +2780,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3564,7 +2805,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3589,7 +2830,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3614,7 +2855,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3639,7 +2880,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3650,7 +2891,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3661,7 +2902,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3672,7 +2913,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3683,7 +2924,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3694,7 +2935,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="17">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3705,7 +2946,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3716,7 +2957,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" spans="1:9" ht="17">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3741,9 +2982,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -4114,9 +3355,9 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>18</v>
@@ -4155,15 +3396,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4380,21 +3612,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4413,19 +3646,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>